--- a/henrar/results.xlsx
+++ b/henrar/results.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Podstawowy" sheetId="1" r:id="rId1"/>
     <sheet name="Skalowalny" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -215,13 +215,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0435808650007719</c:v>
+                  <c:v>1.9572463615048268</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1698393411637635</c:v>
+                  <c:v>3.9902674303432244</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0735448348190877</c:v>
+                  <c:v>5.8808073115003818</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.9671539122957871</c:v>
@@ -306,7 +306,7 @@
                   <c:v>5.5977478467847552</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6426108262625352</c:v>
+                  <c:v>7.4925277649828548</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9.4318525915665372</c:v>
@@ -444,10 +444,10 @@
                   <c:v>1.9685223808325729</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2300974638345883</c:v>
+                  <c:v>3.8935811332448851</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0319262334112009</c:v>
+                  <c:v>5.9849875214691872</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.8287841328182557</c:v>
@@ -471,11 +471,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-252802608"/>
-        <c:axId val="-252815120"/>
+        <c:axId val="635386384"/>
+        <c:axId val="635397264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-252815120"/>
+        <c:axId val="635397264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,12 +530,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-252802608"/>
+        <c:crossAx val="635386384"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-252802608"/>
+        <c:axId val="635386384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -581,7 +581,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-252815120"/>
+        <c:crossAx val="635397264"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -722,13 +722,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0217904325003859</c:v>
+                  <c:v>0.97862318075241339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0424598352909409</c:v>
+                  <c:v>0.9975668575858061</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0122574724698479</c:v>
+                  <c:v>0.98013455191673027</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.99589423903697338</c:v>
@@ -813,7 +813,7 @@
                   <c:v>0.6997184808480944</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6642610826262535</c:v>
+                  <c:v>0.74925277649828548</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.78598771596387806</c:v>
@@ -951,10 +951,10 @@
                   <c:v>0.98426119041628646</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0575243659586471</c:v>
+                  <c:v>0.97339528331122127</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0053210389018667</c:v>
+                  <c:v>0.9974979202448645</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.97859801660228196</c:v>
@@ -978,11 +978,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-252817296"/>
-        <c:axId val="-252812400"/>
+        <c:axId val="686121184"/>
+        <c:axId val="686132064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-252812400"/>
+        <c:axId val="686132064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,12 +1037,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-252817296"/>
+        <c:crossAx val="686121184"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-252817296"/>
+        <c:axId val="686121184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1088,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-252812400"/>
+        <c:crossAx val="686132064"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1226,13 +1226,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
-                  <c:v>-2.1325735500442478E-2</c:v>
+                  <c:v>2.1843769561181947E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.3576809341880844E-2</c:v>
+                  <c:v>8.1302567866055797E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.4218092339571172E-3</c:v>
+                  <c:v>4.0536165252865299E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.8895539048358411E-4</c:v>
@@ -1314,7 +1314,7 @@
                   <c:v>6.1306598372033658E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.6159129487385266E-2</c:v>
+                  <c:v>3.7184783941024702E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.4753137727150088E-2</c:v>
@@ -1446,10 +1446,10 @@
                   <c:v>1.599048071483633E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.8131770075576831E-2</c:v>
+                  <c:v>9.11062447939163E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0585750612916889E-3</c:v>
+                  <c:v>5.0167117231107998E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.1242922505498871E-3</c:v>
@@ -1473,11 +1473,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-252815664"/>
-        <c:axId val="-252809680"/>
+        <c:axId val="686135872"/>
+        <c:axId val="686124992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-252809680"/>
+        <c:axId val="686124992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,12 +1532,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-252815664"/>
+        <c:crossAx val="686135872"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-252815664"/>
+        <c:axId val="686135872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1583,7 +1583,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-252809680"/>
+        <c:crossAx val="686124992"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1803,22 +1803,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1783645541063508</c:v>
+                  <c:v>1.9688506878432406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2651526200645904</c:v>
+                  <c:v>3.744964478458396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3132151117964534</c:v>
+                  <c:v>5.7247075273828951</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4505449141347437</c:v>
+                  <c:v>7.4283675246758287</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6997141187433886</c:v>
+                  <c:v>9.0828390989898384</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.669478964770267</c:v>
+                  <c:v>11.040125121346133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1885,13 +1885,13 @@
                   <c:v>1.9896807984807359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3217430271771162</c:v>
+                  <c:v>3.9497660660580967</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1138513224699427</c:v>
+                  <c:v>5.9810427055037412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1302913128789775</c:v>
+                  <c:v>7.8871486823843835</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.721995261483487</c:v>
@@ -1953,10 +1953,10 @@
                   <c:v>1.9711609469552709</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2560131032498569</c:v>
+                  <c:v>3.9154032920954407</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0365840950509639</c:v>
+                  <c:v>5.9828960353634537</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.9137731399786357</c:v>
@@ -1980,11 +1980,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-252808592"/>
-        <c:axId val="-252814032"/>
+        <c:axId val="686123360"/>
+        <c:axId val="686122272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-252814032"/>
+        <c:axId val="686122272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2039,12 +2039,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-252808592"/>
+        <c:crossAx val="686123360"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-252808592"/>
+        <c:axId val="686123360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2090,7 +2090,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-252814032"/>
+        <c:crossAx val="686122272"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2307,22 +2307,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0891822770531754</c:v>
+                  <c:v>0.98442534392162029</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0662881550161476</c:v>
+                  <c:v>0.93624111961459899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0522025186327422</c:v>
+                  <c:v>0.95411792123048256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.056318114266843</c:v>
+                  <c:v>0.92854594058447859</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96997141187433888</c:v>
+                  <c:v>0.90828390989898389</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97245658039752225</c:v>
+                  <c:v>0.92001042677884437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2389,13 +2389,13 @@
                   <c:v>0.99484039924036793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0804357567942791</c:v>
+                  <c:v>0.98744151651452416</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0189752204116571</c:v>
+                  <c:v>0.99684045091729023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0162864141098722</c:v>
+                  <c:v>0.98589358529804794</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.9721995261483487</c:v>
@@ -2457,10 +2457,10 @@
                   <c:v>0.98558047347763544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0640032758124642</c:v>
+                  <c:v>0.97885082302386017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0060973491751606</c:v>
+                  <c:v>0.99714933922724225</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.98922164249732947</c:v>
@@ -2484,11 +2484,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-252807504"/>
-        <c:axId val="-252808048"/>
+        <c:axId val="686128256"/>
+        <c:axId val="686131520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-252808048"/>
+        <c:axId val="686131520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2543,12 +2543,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-252807504"/>
+        <c:crossAx val="686128256"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-252807504"/>
+        <c:axId val="686128256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,7 +2594,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-252808048"/>
+        <c:crossAx val="686131520"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2808,22 +2808,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
-                  <c:v>-8.1880029570864377E-2</c:v>
+                  <c:v>1.582106370436942E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.0722401883677095E-2</c:v>
+                  <c:v>2.2700306238648976E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.9225230330327371E-3</c:v>
+                  <c:v>9.6176956220140105E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.6164980857564525E-3</c:v>
+                  <c:v>1.0993233966669022E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4398021950902352E-3</c:v>
+                  <c:v>1.1219704067007039E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5748679036809241E-3</c:v>
+                  <c:v>7.9040184459664136E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2887,13 +2887,13 @@
                   <c:v>5.1863603082180632E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.4815838204928536E-2</c:v>
+                  <c:v>4.2394016170209286E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.724373278477011E-3</c:v>
+                  <c:v>6.3391269481540837E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.2893453605422926E-3</c:v>
+                  <c:v>2.0440361214741592E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.1772711835296851E-3</c:v>
@@ -2952,10 +2952,10 @@
                   <c:v>1.4630491279403079E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.0051089837604692E-2</c:v>
+                  <c:v>7.2020429394290542E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.2120793639222804E-3</c:v>
+                  <c:v>5.7176205421084476E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.5565423271949161E-3</c:v>
@@ -2979,11 +2979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-252804784"/>
-        <c:axId val="-252811312"/>
+        <c:axId val="686134240"/>
+        <c:axId val="686133696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-252811312"/>
+        <c:axId val="686133696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3038,12 +3038,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-252804784"/>
+        <c:crossAx val="686134240"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-252804784"/>
+        <c:axId val="686134240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3089,7 +3089,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-252811312"/>
+        <c:crossAx val="686133696"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3175,7 +3175,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5400720" cy="3240720"/>
+    <xdr:ext cx="5713380" cy="3409950"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
@@ -3566,8 +3566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:G32"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3625,19 +3625,19 @@
         <v>1000000</v>
       </c>
       <c r="C3">
-        <v>4.5340999999999999E-2</v>
+        <v>4.7341000000000001E-2</v>
       </c>
       <c r="E3">
         <f>C2/C3</f>
-        <v>2.0435808650007719</v>
+        <v>1.9572463615048268</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>1.0217904325003859</v>
+        <v>0.97862318075241339</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G8" si="1">(1/E3-1/A3)/(1-1/A3)</f>
-        <v>-2.1325735500442478E-2</v>
+        <v>2.1843769561181947E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3648,19 +3648,19 @@
         <v>1000000</v>
       </c>
       <c r="C4">
-        <v>2.2221000000000001E-2</v>
+        <v>2.3220999999999999E-2</v>
       </c>
       <c r="E4">
         <f>C2/C4</f>
-        <v>4.1698393411637635</v>
+        <v>3.9902674303432244</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>1.0424598352909409</v>
+        <v>0.9975668575858061</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>-1.3576809341880844E-2</v>
+        <v>8.1302567866055797E-4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3671,19 +3671,19 @@
         <v>1000000</v>
       </c>
       <c r="C5">
-        <v>1.5256E-2</v>
+        <v>1.5755999999999999E-2</v>
       </c>
       <c r="E5">
         <f>C2/C5</f>
-        <v>6.0735448348190877</v>
+        <v>5.8808073115003818</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>1.0122574724698479</v>
+        <v>0.98013455191673027</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>-2.4218092339571172E-3</v>
+        <v>4.0536165252865299E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3874,19 +3874,19 @@
         <v>10000000</v>
       </c>
       <c r="C15">
-        <v>8.8155999999999998E-2</v>
+        <v>7.8156000000000003E-2</v>
       </c>
       <c r="E15">
         <f>C10/C15</f>
-        <v>6.6426108262625352</v>
+        <v>7.4925277649828548</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.6642610826262535</v>
+        <v>0.74925277649828548</v>
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
-        <v>5.6159129487385266E-2</v>
+        <v>3.7184783941024702E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3973,7 +3973,7 @@
         <v>0.93630718956501824</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G19:G24" si="5">(1/E20-1/A20)/(1-1/A20)</f>
+        <f t="shared" ref="G20:G24" si="5">(1/E20-1/A20)/(1-1/A20)</f>
         <v>2.2675182940252652E-2</v>
       </c>
     </row>
@@ -4119,19 +4119,19 @@
         <v>1000000000</v>
       </c>
       <c r="C28">
-        <v>12.727285</v>
+        <v>13.827285</v>
       </c>
       <c r="E28">
         <f>C26/C28</f>
-        <v>4.2300974638345883</v>
+        <v>3.8935811332448851</v>
       </c>
       <c r="F28">
         <f t="shared" si="6"/>
-        <v>1.0575243659586471</v>
+        <v>0.97339528331122127</v>
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G32" si="7">(1/E28-1/A28)/(1-1/A28)</f>
-        <v>-1.8131770075576831E-2</v>
+        <v>9.11062447939163E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4142,19 +4142,19 @@
         <v>1000000000</v>
       </c>
       <c r="C29">
-        <v>8.9254499999999997</v>
+        <v>8.9954499999999999</v>
       </c>
       <c r="E29">
         <f>C26/C29</f>
-        <v>6.0319262334112009</v>
+        <v>5.9849875214691872</v>
       </c>
       <c r="F29">
         <f t="shared" si="6"/>
-        <v>1.0053210389018667</v>
+        <v>0.9974979202448645</v>
       </c>
       <c r="G29">
         <f t="shared" si="7"/>
-        <v>-1.0585750612916889E-3</v>
+        <v>5.0167117231107998E-4</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4240,8 +4240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4456,19 +4456,19 @@
         <v>10000000</v>
       </c>
       <c r="C11">
-        <v>0.28191699999999997</v>
+        <v>0.311917</v>
       </c>
       <c r="E11">
         <f>C10/C11</f>
-        <v>2.1783645541063508</v>
+        <v>1.9688506878432406</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>1.0891822770531754</v>
+        <v>0.98442534392162029</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G16" si="3">(1/E11-1/A11)/(1-1/A11)</f>
-        <v>-8.1880029570864377E-2</v>
+        <v>1.582106370436942E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4479,19 +4479,19 @@
         <v>10000000</v>
       </c>
       <c r="C12">
-        <v>0.143985</v>
+        <v>0.16398499999999999</v>
       </c>
       <c r="E12">
         <f>C10/C12</f>
-        <v>4.2651526200645904</v>
+        <v>3.744964478458396</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>1.0662881550161476</v>
+        <v>0.93624111961459899</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>-2.0722401883677095E-2</v>
+        <v>2.2700306238648976E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4502,19 +4502,19 @@
         <v>10000000</v>
       </c>
       <c r="C13">
-        <v>9.7275E-2</v>
+        <v>0.107275</v>
       </c>
       <c r="E13">
         <f>C10/C13</f>
-        <v>6.3132151117964534</v>
+        <v>5.7247075273828951</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>1.0522025186327422</v>
+        <v>0.95411792123048256</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>-9.9225230330327371E-3</v>
+        <v>9.6176956220140105E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4525,19 +4525,19 @@
         <v>10000000</v>
       </c>
       <c r="C14">
-        <v>7.2672E-2</v>
+        <v>8.2671999999999995E-2</v>
       </c>
       <c r="E14">
         <f>C10/C14</f>
-        <v>8.4505449141347437</v>
+        <v>7.4283675246758287</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>1.056318114266843</v>
+        <v>0.92854594058447859</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
-        <v>-7.6164980857564525E-3</v>
+        <v>1.0993233966669022E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4548,19 +4548,19 @@
         <v>10000000</v>
       </c>
       <c r="C15">
-        <v>6.3312999999999994E-2</v>
+        <v>6.7613000000000006E-2</v>
       </c>
       <c r="E15">
         <f>C10/C15</f>
-        <v>9.6997141187433886</v>
+        <v>9.0828390989898384</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.96997141187433888</v>
+        <v>0.90828390989898389</v>
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
-        <v>3.4398021950902352E-3</v>
+        <v>1.1219704067007039E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4571,19 +4571,19 @@
         <v>10000000</v>
       </c>
       <c r="C16">
-        <v>5.2625999999999999E-2</v>
+        <v>5.5626000000000002E-2</v>
       </c>
       <c r="E16">
         <f>C10/C16</f>
-        <v>11.669478964770267</v>
+        <v>11.040125121346133</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0.97245658039752225</v>
+        <v>0.92001042677884437</v>
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
-        <v>2.5748679036809241E-3</v>
+        <v>7.9040184459664136E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4636,19 +4636,19 @@
         <v>100000000</v>
       </c>
       <c r="C20">
-        <v>1.274197</v>
+        <v>1.3941969999999999</v>
       </c>
       <c r="E20">
         <f>C18/C20</f>
-        <v>4.3217430271771162</v>
+        <v>3.9497660660580967</v>
       </c>
       <c r="F20">
         <f t="shared" si="4"/>
-        <v>1.0804357567942791</v>
+        <v>0.98744151651452416</v>
       </c>
       <c r="G20">
         <f t="shared" si="5"/>
-        <v>-2.4815838204928536E-2</v>
+        <v>4.2394016170209286E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4659,19 +4659,19 @@
         <v>100000000</v>
       </c>
       <c r="C21">
-        <v>0.90070099999999997</v>
+        <v>0.92070099999999999</v>
       </c>
       <c r="E21">
         <f>C18/C21</f>
-        <v>6.1138513224699427</v>
+        <v>5.9810427055037412</v>
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
-        <v>1.0189752204116571</v>
+        <v>0.99684045091729023</v>
       </c>
       <c r="G21">
         <f t="shared" si="5"/>
-        <v>-3.724373278477011E-3</v>
+        <v>6.3391269481540837E-4</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4682,19 +4682,19 @@
         <v>100000000</v>
       </c>
       <c r="C22">
-        <v>0.67731300000000005</v>
+        <v>0.69819299999999995</v>
       </c>
       <c r="E22">
         <f>C18/C22</f>
-        <v>8.1302913128789775</v>
+        <v>7.8871486823843835</v>
       </c>
       <c r="F22">
         <f t="shared" si="4"/>
-        <v>1.0162864141098722</v>
+        <v>0.98589358529804794</v>
       </c>
       <c r="G22">
         <f t="shared" si="5"/>
-        <v>-2.2893453605422926E-3</v>
+        <v>2.0440361214741592E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4793,19 +4793,19 @@
         <v>4000000000</v>
       </c>
       <c r="C28">
-        <v>12.644802</v>
+        <v>13.744802</v>
       </c>
       <c r="E28">
         <f>C26/C28</f>
-        <v>4.2560131032498569</v>
+        <v>3.9154032920954407</v>
       </c>
       <c r="F28">
         <f t="shared" si="6"/>
-        <v>1.0640032758124642</v>
+        <v>0.97885082302386017</v>
       </c>
       <c r="G28">
         <f t="shared" ref="G28:G32" si="7">(1/E28-1/A28)/(1-1/A28)</f>
-        <v>-2.0051089837604692E-2</v>
+        <v>7.2020429394290542E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4816,19 +4816,19 @@
         <v>6000000000</v>
       </c>
       <c r="C29">
-        <v>8.9150489999999998</v>
+        <v>8.9950489999999999</v>
       </c>
       <c r="E29">
         <f>C26/C29</f>
-        <v>6.0365840950509639</v>
+        <v>5.9828960353634537</v>
       </c>
       <c r="F29">
         <f t="shared" si="6"/>
-        <v>1.0060973491751606</v>
+        <v>0.99714933922724225</v>
       </c>
       <c r="G29">
         <f t="shared" si="7"/>
-        <v>-1.2120793639222804E-3</v>
+        <v>5.7176205421084476E-4</v>
       </c>
     </row>
     <row r="30" spans="1:7">

--- a/henrar/results.xlsx
+++ b/henrar/results.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DRIVE\GIT\TPRLab3\henrar\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Podstawowy" sheetId="1" r:id="rId1"/>
     <sheet name="Skalowalny" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>L. procesorów</t>
   </si>
@@ -42,11 +37,23 @@
   <si>
     <t>Procesory</t>
   </si>
+  <si>
+    <t>10^6</t>
+  </si>
+  <si>
+    <t>10^7</t>
+  </si>
+  <si>
+    <t>10^8</t>
+  </si>
+  <si>
+    <t>10^9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$zł-415];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$zł-415]"/>
   </numFmts>
@@ -128,10 +135,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -150,14 +154,11 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -235,7 +236,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -314,7 +314,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -393,7 +392,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -461,25 +459,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="635386384"/>
-        <c:axId val="635397264"/>
+        <c:dLbls/>
+        <c:axId val="74680960"/>
+        <c:axId val="74679040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="635397264"/>
+        <c:axId val="74679040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -507,11 +496,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -527,19 +514,18 @@
             <a:pPr>
               <a:defRPr sz="1000" b="0"/>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635386384"/>
+        <c:crossAx val="74680960"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="635386384"/>
+        <c:axId val="74680960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -558,11 +544,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -578,10 +562,10 @@
             <a:pPr>
               <a:defRPr sz="1000" b="0"/>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635397264"/>
+        <c:crossAx val="74679040"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -598,7 +582,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -612,13 +595,12 @@
           <a:pPr>
             <a:defRPr sz="1000" b="0"/>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -627,7 +609,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -635,10 +617,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -657,14 +636,11 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -742,7 +718,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -821,7 +796,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -900,7 +874,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -968,25 +941,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="686121184"/>
-        <c:axId val="686132064"/>
+        <c:dLbls/>
+        <c:axId val="47686400"/>
+        <c:axId val="47667840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="686132064"/>
+        <c:axId val="47667840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1014,11 +978,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -1034,19 +996,18 @@
             <a:pPr>
               <a:defRPr sz="1000" b="0"/>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686121184"/>
+        <c:crossAx val="47686400"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="686121184"/>
+        <c:axId val="47686400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1065,11 +1026,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -1085,10 +1044,10 @@
             <a:pPr>
               <a:defRPr sz="1000" b="0"/>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686132064"/>
+        <c:crossAx val="47667840"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1105,7 +1064,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1119,13 +1077,12 @@
           <a:pPr>
             <a:defRPr sz="1000" b="0"/>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1134,7 +1091,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1142,10 +1099,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1164,14 +1118,11 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1246,7 +1197,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1322,7 +1272,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1398,7 +1347,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1463,25 +1411,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="686135872"/>
-        <c:axId val="686124992"/>
+        <c:dLbls/>
+        <c:axId val="47733376"/>
+        <c:axId val="47731456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="686124992"/>
+        <c:axId val="47731456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1509,11 +1448,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -1529,19 +1466,18 @@
             <a:pPr>
               <a:defRPr sz="1000" b="0"/>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686135872"/>
+        <c:crossAx val="47733376"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="686135872"/>
+        <c:axId val="47733376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1560,11 +1496,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -1580,10 +1514,10 @@
             <a:pPr>
               <a:defRPr sz="1000" b="0"/>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686124992"/>
+        <c:crossAx val="47731456"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1600,7 +1534,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1614,13 +1547,12 @@
           <a:pPr>
             <a:defRPr sz="1000" b="0"/>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -1629,7 +1561,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1637,10 +1569,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1659,14 +1588,11 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1744,7 +1670,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1823,7 +1748,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1902,7 +1826,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1970,25 +1893,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="686123360"/>
-        <c:axId val="686122272"/>
+        <c:dLbls/>
+        <c:axId val="47928448"/>
+        <c:axId val="47836160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="686122272"/>
+        <c:axId val="47836160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2016,11 +1930,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -2036,19 +1948,18 @@
             <a:pPr>
               <a:defRPr sz="1000" b="0"/>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686123360"/>
+        <c:crossAx val="47928448"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="686123360"/>
+        <c:axId val="47928448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2067,11 +1978,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -2087,10 +1996,10 @@
             <a:pPr>
               <a:defRPr sz="1000" b="0"/>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686122272"/>
+        <c:crossAx val="47836160"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2107,7 +2016,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2121,13 +2029,12 @@
           <a:pPr>
             <a:defRPr sz="1000" b="0"/>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -2136,7 +2043,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2144,10 +2051,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2166,14 +2070,11 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2251,7 +2152,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2327,7 +2227,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2406,7 +2305,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2474,25 +2372,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="686128256"/>
-        <c:axId val="686131520"/>
+        <c:dLbls/>
+        <c:axId val="47963136"/>
+        <c:axId val="47961216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="686131520"/>
+        <c:axId val="47961216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2520,11 +2409,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -2540,19 +2427,18 @@
             <a:pPr>
               <a:defRPr sz="1000" b="0"/>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686128256"/>
+        <c:crossAx val="47963136"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="686128256"/>
+        <c:axId val="47963136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2571,11 +2457,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -2591,10 +2475,10 @@
             <a:pPr>
               <a:defRPr sz="1000" b="0"/>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686131520"/>
+        <c:crossAx val="47961216"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2611,7 +2495,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2625,13 +2508,12 @@
           <a:pPr>
             <a:defRPr sz="1000" b="0"/>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -2640,7 +2522,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2648,10 +2530,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2670,14 +2549,11 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2752,7 +2628,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2828,7 +2703,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2904,7 +2778,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2969,25 +2842,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="686134240"/>
-        <c:axId val="686133696"/>
+        <c:dLbls/>
+        <c:axId val="48116864"/>
+        <c:axId val="48110592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="686133696"/>
+        <c:axId val="48110592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3015,11 +2879,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -3035,19 +2897,18 @@
             <a:pPr>
               <a:defRPr sz="1000" b="0"/>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686134240"/>
+        <c:crossAx val="48116864"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="686134240"/>
+        <c:axId val="48116864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3066,11 +2927,9 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -3086,10 +2945,10 @@
             <a:pPr>
               <a:defRPr sz="1000" b="0"/>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686133696"/>
+        <c:crossAx val="48110592"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3106,7 +2965,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3120,13 +2978,12 @@
           <a:pPr>
             <a:defRPr sz="1000" b="0"/>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:ln>
@@ -3135,7 +2992,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3344,7 +3201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3379,7 +3236,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3556,18 +3413,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3608,6 +3465,9 @@
       <c r="C2">
         <v>9.2658000000000004E-2</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
       <c r="E2">
         <f>C2/C2</f>
         <v>1</v>
@@ -3765,6 +3625,9 @@
       <c r="C10">
         <v>0.58558600000000005</v>
       </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
       <c r="E10">
         <f>C10/C10</f>
         <v>1</v>
@@ -3922,6 +3785,9 @@
       <c r="C18">
         <v>5.4313269999999996</v>
       </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
       <c r="E18">
         <f>C18/C18</f>
         <v>1</v>
@@ -4078,6 +3944,9 @@
       </c>
       <c r="C26">
         <v>53.837656000000003</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
       </c>
       <c r="E26">
         <f>C26/C26</f>
@@ -4237,11 +4106,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4282,6 +4151,9 @@
       <c r="C2">
         <v>6.2488000000000002E-2</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
       <c r="E2">
         <f>C2/C2</f>
         <v>1</v>
